--- a/Jogos_do_Dia/2023-01-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.48</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.16</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="G3" t="n">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>1.11</v>
@@ -763,10 +763,10 @@
         <v>2.38</v>
       </c>
       <c r="M3" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="N3" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="O3" t="n">
         <v>1.58</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>5.91</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="O4" t="n">
         <v>1.41</v>
@@ -924,7 +924,7 @@
         <v>3.46</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE4" t="n">
         <v>1.62</v>
@@ -936,7 +936,7 @@
         <v>2.53</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G6" t="n">
-        <v>3.67</v>
+        <v>4.35</v>
       </c>
       <c r="H6" t="n">
-        <v>4.56</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1093,10 +1093,10 @@
         <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="G7" t="n">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>2.65</v>
       </c>
       <c r="M7" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="N7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1245,28 +1245,28 @@
         <v>2.64</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="N8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.49</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1465,13 +1465,13 @@
         <v>2.82</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AD9" t="n">
         <v>1.25</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="G10" t="n">
-        <v>2.69</v>
+        <v>2.95</v>
       </c>
       <c r="H10" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="N10" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="N11" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1706,7 +1706,7 @@
         <v>3.04</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -1905,13 +1905,13 @@
         <v>3.03</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
         <v>1.18</v>
@@ -2015,13 +2015,13 @@
         <v>2.65</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1.18</v>
@@ -2125,13 +2125,13 @@
         <v>2.73</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD15" t="n">
         <v>1.22</v>
@@ -2235,13 +2235,13 @@
         <v>3.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>2.42</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD17" t="n">
         <v>1.29</v>
@@ -2455,13 +2455,13 @@
         <v>3.04</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AD18" t="n">
         <v>1.32</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2853,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="G23" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="H23" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="G24" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="H24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3073,10 +3073,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="N24" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
@@ -3124,10 +3124,10 @@
         <v>1.35</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF24" t="n">
         <v>1.45</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="G26" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="I26" t="n">
         <v>1.08</v>
@@ -3293,10 +3293,10 @@
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>2.11</v>
+        <v>2.28</v>
       </c>
       <c r="N26" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O27" t="n">
         <v>1.43</v>
@@ -3454,7 +3454,7 @@
         <v>2.33</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE27" t="n">
         <v>1.28</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
         <v>1.12</v>
@@ -3510,7 +3510,7 @@
         <v>1.55</v>
       </c>
       <c r="L28" t="n">
-        <v>2.48</v>
+        <v>2.29</v>
       </c>
       <c r="M28" t="n">
         <v>2.5</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
         <v>1.06</v>
@@ -3623,10 +3623,10 @@
         <v>2.95</v>
       </c>
       <c r="M29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N29" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G30" t="n">
-        <v>4.86</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
-        <v>7.86</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
         <v>1.02</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="I31" t="n">
         <v>1.04</v>
@@ -3843,10 +3843,10 @@
         <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="N31" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>

--- a/Jogos_do_Dia/2023-01-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -635,10 +635,10 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -680,10 +680,10 @@
         <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
         <v>1.67</v>
@@ -790,10 +790,10 @@
         <v>1.47</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>1.79</v>
@@ -826,7 +826,7 @@
         <v>4.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>5.91</v>
+        <v>5.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,7 +873,7 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N4" t="n">
         <v>1.63</v>
@@ -900,10 +900,10 @@
         <v>2.33</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>1.61</v>
@@ -965,49 +965,49 @@
         <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M5" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.67</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>1.14</v>
@@ -1025,22 +1025,22 @@
         <v>2.48</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O8" t="n">
         <v>1.49</v>
@@ -1373,10 +1373,10 @@
         <v>2.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="G10" t="n">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1637,10 +1637,10 @@
         <v>8</v>
       </c>
       <c r="K11" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="M11" t="n">
         <v>2.43</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
         <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.03</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.63</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="N20" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,10 +2743,10 @@
         <v>2.89</v>
       </c>
       <c r="M21" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="N21" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2853,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="N22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="G23" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="G24" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="I24" t="n">
         <v>1.03</v>
@@ -3073,10 +3073,10 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N24" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
         <v>1.08</v>
@@ -3293,10 +3293,10 @@
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N26" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
         <v>1.07</v>
@@ -3403,10 +3403,10 @@
         <v>3.1</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
         <v>1.43</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="I28" t="n">
         <v>1.12</v>
@@ -3605,10 +3605,10 @@
         <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
         <v>1.06</v>
@@ -3623,10 +3623,10 @@
         <v>2.95</v>
       </c>
       <c r="M29" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
         <v>1.02</v>
@@ -3736,7 +3736,7 @@
         <v>1.62</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
         <v>1.04</v>
@@ -3843,10 +3843,10 @@
         <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N31" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
